--- a/biology/Médecine/Pulmoll_(pastille)/Pulmoll_(pastille).xlsx
+++ b/biology/Médecine/Pulmoll_(pastille)/Pulmoll_(pastille).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pastille Pulmoll est un bonbon à base de miel et de menthol réputé bénéfique pour les voies pulmonaires.
 </t>
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pulmoll a été inventée en 1926 par Victor Hélin, pharmacien à Châteauroux (également créateur de la quintonine) sous la forme d'un sirop à base de miel et de menthol.
-Après 1945, la pulmoll prend la forme d'une pastille et passe à une production industrielle sous la direction de ses gendres Jacques Lafarge (1907-1997) et Jacques Lacour[1].
+Après 1945, la pulmoll prend la forme d'une pastille et passe à une production industrielle sous la direction de ses gendres Jacques Lafarge (1907-1997) et Jacques Lacour.
 En 1976, les laboratoires Lafarge sont repris par Sanofi et la production de la pastille Pulmoll est transférée à Amiens.
-Dans le domaine publicitaire, la pastille Pulmoll a fait l'objet d'une iconographie très variée, la marque a d'abord été représentée par un canard[2], elle a fait aussi l'objet de nombreuses publicités radiophoniques et télévisées [3],[4],[5].
+Dans le domaine publicitaire, la pastille Pulmoll a fait l'objet d'une iconographie très variée, la marque a d'abord été représentée par un canard, elle a fait aussi l'objet de nombreuses publicités radiophoniques et télévisées .
 Actuellement, les pastilles Pulmoll, toujours en boites métalliques rouges de 75 g + d'autres saveurs (orange, citron, fruits rouges ou menthe/eucalyptus) en boites métalliques de 45 g sont commercialisées en pharmacie par la société OTC Concept.
 </t>
         </is>
